--- a/biology/Mycologie/Paul_Ostoya/Paul_Ostoya.xlsx
+++ b/biology/Mycologie/Paul_Ostoya/Paul_Ostoya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Kinderfreund dit Paul Ostoya (Paris 17e, 15 juin 1904 - Paris 14e, 27 août 1969[1]) est un journaliste français, mycologue et botaniste. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Kinderfreund dit Paul Ostoya (Paris 17e, 15 juin 1904 - Paris 14e, 27 août 1969) est un journaliste français, mycologue et botaniste. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Darwinien convaincu, il fut rédacteur en chef de la revue La Nature de 1951 à 1969, producteur d'émissions scientifiques à la radiodiffusion nationale, président de la Fédération française des sociétés de sciences naturelles, secrétaire général de la société mycologique de France.
-Il est l'oncle de l'évolutionniste Louis Thaler[2].
+Il est l'oncle de l'évolutionniste Louis Thaler.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Études. Poèmes, 1945
 Les Théories de l'évolution. Préface de Roger Heim, 1951
@@ -582,7 +598,9 @@
           <t>Dédicaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Armillaria ostoyae lui a été dédiée par Henri Romagnesi. L'espèce Strossmayeria bakeriana (Henn.) Iturr s'est également nommée Helminthosporium ostoyae Bertault et Strossmayeria ostoyae Bertault avant d'être rebaptisée.
 </t>
